--- a/Bitacoras/NRC_124_Grupo_43/Bitacora_Laboratorio_Parcial_02_NRC_126.xlsx
+++ b/Bitacoras/NRC_124_Grupo_43/Bitacora_Laboratorio_Parcial_02_NRC_126.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusto\OneDrive\Documentos\Cursos_UVM\Plan PU\Fisica_3\Bitacoras\NRC_124_Grupo_43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B10C95-05EC-4184-ABE5-64DC7D001DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94079FAE-D573-4A3D-A961-C24867198054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4088411F-45C8-4B22-B9E8-3AFCA733CA3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Concentrado" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Concentrado!$A$1:$Q$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -569,11 +572,11 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5565" ySplit="720" topLeftCell="P1" activePane="bottomRight"/>
+      <pane xSplit="7620" ySplit="720" topLeftCell="P1" activePane="bottomLeft"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1010,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1">
         <v>5</v>
@@ -1026,11 +1029,11 @@
       </c>
       <c r="O8" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -1485,6 +1488,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q16" xr:uid="{E18F788E-C5AE-4216-97AC-EB3138BC4F12}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H16">
     <sortCondition ref="A2:A16"/>
   </sortState>
